--- a/Сайты+что добавил/Список сайтов часть вторая/Металлобаза на Вишневой/pT0y5CSErn.xlsx
+++ b/Сайты+что добавил/Список сайтов часть вторая/Металлобаза на Вишневой/pT0y5CSErn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22425" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -1270,6 +1270,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,12 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
       <selection sqref="A1:C360"/>
     </sheetView>
   </sheetViews>
@@ -1589,11 +1589,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1602,7 +1602,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>81.209999999999994</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>88.82</v>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>103.38</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>133.02000000000001</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>171.95</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>206.58</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>593.91</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>240.3</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>270.01</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>256.54000000000002</v>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>340.65</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>404.65</v>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>410.57</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>8851.77</v>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>478.85</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>498.57</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>600.95000000000005</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>644.32000000000005</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>534.74</v>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>779</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>669.26</v>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>747.5</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>1064.19</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>1231.43</v>
       </c>
     </row>
@@ -1864,16 +1864,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>1830.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1882,7 +1882,7 @@
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>1660.64</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>1074.79</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>2066.2800000000002</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <v>1268.43</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>2498.29</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <v>1632.28</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>3109.78</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>3312.17</v>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>2269.54</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>1969.42</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>4522.0200000000004</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <v>2919.5</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>2071.63</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <v>2406.9</v>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>2748.6</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="5">
         <v>3760.73</v>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="5">
         <v>3256.32</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <v>4827.91</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>6051.65</v>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="5">
         <v>7713.53</v>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       <c r="B49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>654.95000000000005</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="5">
         <v>1886.17</v>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>2059.4299999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -2142,7 +2142,7 @@
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>13.5</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>23.35</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>31.68</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>42.11</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>58.38</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>76.78</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>122.86</v>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>152.4</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="B61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <v>193.74</v>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>9.48</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <v>19.32</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>26.45</v>
       </c>
     </row>
@@ -2274,16 +2274,16 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>38.479999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -2292,7 +2292,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>72.599999999999994</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>78.42</v>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <v>100.37</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <v>107.52</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <v>133.31</v>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>151.85</v>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>168.49</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="4">
         <v>196.59</v>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="4">
         <v>235.72</v>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="4">
         <v>295.57</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="4">
         <v>367.93</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <v>504.39</v>
       </c>
     </row>
@@ -2424,16 +2424,16 @@
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="4">
         <v>712.81</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
@@ -2442,7 +2442,7 @@
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="4">
         <v>42.89</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <v>54.87</v>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="4">
         <v>67.28</v>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="4">
         <v>84.09</v>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       <c r="B85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="4">
         <v>64.63</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="B86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="4">
         <v>83.91</v>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="4">
         <v>102.68</v>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       <c r="B88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="4">
         <v>80.55</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       <c r="B89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="4">
         <v>101.68</v>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       <c r="B90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="4">
         <v>109.82</v>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="4">
         <v>141.11000000000001</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       <c r="B92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="4">
         <v>201.21</v>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="4">
         <v>129.82</v>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="B94" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="4">
         <v>136.16</v>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="4">
         <v>179.76</v>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="4">
         <v>261.01</v>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="4">
         <v>158.72999999999999</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="4">
         <v>219.67</v>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="B99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="4">
         <v>173.41</v>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       <c r="B100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="4">
         <v>247.58</v>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       <c r="B101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="4">
         <v>214.57</v>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="4">
         <v>304.10000000000002</v>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="4">
         <v>216.77</v>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="4">
         <v>301.13</v>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="4">
         <v>340.04</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="B106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="4">
         <v>435.86</v>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="4">
         <v>539.42999999999995</v>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="4">
         <v>676.78</v>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       <c r="B109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="4">
         <v>399.22</v>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="B110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="4">
         <v>574.29999999999995</v>
       </c>
     </row>
@@ -2772,16 +2772,16 @@
       <c r="B111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="4">
         <v>859.58</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
@@ -2790,7 +2790,7 @@
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="4">
         <v>48.52</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="B114" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="4">
         <v>68.290000000000006</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="4">
         <v>86.6</v>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="4">
         <v>120.41</v>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       <c r="B117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="4">
         <v>70</v>
       </c>
     </row>
@@ -2845,16 +2845,16 @@
       <c r="B118" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="4">
         <v>119.13</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -2863,7 +2863,7 @@
       <c r="B120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="4">
         <v>15.5</v>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       <c r="B121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="4">
         <v>22.47</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="B122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="4">
         <v>36.549999999999997</v>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       <c r="B123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="4">
         <v>52.68</v>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       <c r="B124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="4">
         <v>72.7</v>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="4">
         <v>89.69</v>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       <c r="B126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="4">
         <v>118.52</v>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       <c r="B127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="4">
         <v>114.5</v>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       <c r="B128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="4">
         <v>138.51</v>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       <c r="B129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="4">
         <v>165</v>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       <c r="B130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="4">
         <v>242.05</v>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       <c r="B131" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="4">
         <v>369.65</v>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       <c r="B132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="4">
         <v>599.67999999999995</v>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="5">
         <v>1230.17</v>
       </c>
     </row>
@@ -3017,16 +3017,16 @@
       <c r="B134" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="4">
         <v>81.36</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
@@ -3035,7 +3035,7 @@
       <c r="B136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="4">
         <v>405.66</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       <c r="B137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="4">
         <v>466.24</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="B138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="4">
         <v>594.15</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="4">
         <v>706.82</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="4">
         <v>824.59</v>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       <c r="B141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="4">
         <v>997.11</v>
       </c>
     </row>
@@ -3101,16 +3101,16 @@
       <c r="B142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="5">
         <v>1373.92</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
@@ -3119,7 +3119,7 @@
       <c r="B144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="4">
         <v>43.99</v>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       <c r="B145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="4">
         <v>54.78</v>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       <c r="B146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="4">
         <v>63.61</v>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       <c r="B147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="4">
         <v>85.43</v>
       </c>
     </row>
@@ -3163,16 +3163,16 @@
       <c r="B148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="4">
         <v>105.72</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
@@ -3181,7 +3181,7 @@
       <c r="B150" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="4">
         <v>35.24</v>
       </c>
     </row>
@@ -3192,16 +3192,16 @@
       <c r="B151" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="4">
         <v>50.34</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
@@ -3210,16 +3210,16 @@
       <c r="B153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="4">
         <v>282.22000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
@@ -3228,7 +3228,7 @@
       <c r="B155" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="4">
         <v>76.28</v>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       <c r="B156" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="4">
         <v>75.11</v>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       <c r="B157" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="4">
         <v>72</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="B158" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="4">
         <v>74.45</v>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="B159" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="4">
         <v>74.45</v>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       <c r="B160" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="4">
         <v>69.53</v>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       <c r="B161" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="4">
         <v>24.56</v>
       </c>
     </row>
@@ -3305,16 +3305,16 @@
       <c r="B162" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
@@ -3323,7 +3323,7 @@
       <c r="B164" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="4">
         <v>111.87</v>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="B165" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="4">
         <v>213.57</v>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       <c r="B166" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="4">
         <v>359</v>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="B167" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="4">
         <v>90</v>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="B168" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="4">
         <v>164.96</v>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       <c r="B169" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="4">
         <v>252.22</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="B170" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="4">
         <v>86.95</v>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       <c r="B171" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="4">
         <v>159.75</v>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="B172" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="4">
         <v>172.89</v>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       <c r="B173" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="4">
         <v>217.23</v>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       <c r="B174" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="4">
         <v>390.53</v>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       <c r="B175" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="5">
         <v>1302.78</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       <c r="B176" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="5">
         <v>2186.5500000000002</v>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       <c r="B177" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="5">
         <v>1075</v>
       </c>
     </row>
@@ -3477,16 +3477,16 @@
       <c r="B178" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="4">
         <v>198.87</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="6"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
@@ -3495,7 +3495,7 @@
       <c r="B180" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="4">
         <v>186</v>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       <c r="B181" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="4">
         <v>184.08</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       <c r="B182" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="4">
         <v>182.12</v>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       <c r="B183" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="4">
         <v>442.4</v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       <c r="B184" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="4">
         <v>180</v>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       <c r="B185" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="4">
         <v>429</v>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="B186" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="4">
         <v>135</v>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       <c r="B187" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="4">
         <v>150</v>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       <c r="B188" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="4">
         <v>350</v>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       <c r="B189" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="4">
         <v>735</v>
       </c>
     </row>
@@ -3605,16 +3605,16 @@
       <c r="B190" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="4">
         <v>740</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B191" s="5"/>
-      <c r="C191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
@@ -3623,7 +3623,7 @@
       <c r="B192" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="4">
         <v>85.28</v>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="B193" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="4">
         <v>81.36</v>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="B194" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="4">
         <v>60.97</v>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       <c r="B195" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="4">
         <v>60.97</v>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       <c r="B196" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="4">
         <v>60.97</v>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       <c r="B197" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="4">
         <v>60.97</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       <c r="B198" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="4">
         <v>60.97</v>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       <c r="B199" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="4">
         <v>32.44</v>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="B200" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="4">
         <v>32.44</v>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="B201" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="4">
         <v>32.44</v>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="B202" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="4">
         <v>67.010000000000005</v>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       <c r="B203" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="4">
         <v>55.77</v>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       <c r="B204" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="4">
         <v>91.41</v>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="B205" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="4">
         <v>56.5</v>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       <c r="B206" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="4">
         <v>81.12</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       <c r="B207" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="4">
         <v>223.74</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       <c r="B208" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="4">
         <v>196.54</v>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       <c r="B209" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="4">
         <v>210.85</v>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       <c r="B210" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="4">
         <v>239.86</v>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       <c r="B211" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="4">
         <v>66.86</v>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       <c r="B212" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="4">
         <v>74.22</v>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       <c r="B213" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="4">
         <v>100.94</v>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="B214" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="4">
         <v>114.41</v>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       <c r="B215" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="4">
         <v>82.68</v>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       <c r="B216" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="4">
         <v>117.13</v>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       <c r="B217" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="4">
         <v>112.43</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       <c r="B218" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="4">
         <v>48.66</v>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       <c r="B219" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="4">
         <v>48.66</v>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       <c r="B220" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="4">
         <v>48.66</v>
       </c>
     </row>
@@ -3942,16 +3942,16 @@
       <c r="B221" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="4">
         <v>58.17</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="8"/>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
@@ -3960,7 +3960,7 @@
       <c r="B223" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="4">
         <v>81.36</v>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       <c r="B224" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="4">
         <v>95.6</v>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       <c r="B225" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="4">
         <v>122.04</v>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       <c r="B226" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="4">
         <v>142.38</v>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       <c r="B227" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="4">
         <v>76.28</v>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       <c r="B228" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="4">
         <v>81.36</v>
       </c>
     </row>
@@ -4026,16 +4026,16 @@
       <c r="B229" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="4">
         <v>71.19</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B230" s="5"/>
-      <c r="C230" s="6"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
@@ -4044,23 +4044,23 @@
       <c r="B231" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="4">
         <v>86.45</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B232" s="5"/>
-      <c r="C232" s="6"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="7">
+      <c r="C233" s="4">
         <v>487.7</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
         <v>243</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="7">
+      <c r="C234" s="4">
         <v>387.36</v>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="B235" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="4">
         <v>5.65</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="B236" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="4">
         <v>432.23</v>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       <c r="B237" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="4">
         <v>371.21</v>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       <c r="B238" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="4">
         <v>915.3</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       <c r="B239" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C239" s="8">
+      <c r="C239" s="5">
         <v>1220.4000000000001</v>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       <c r="B240" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C240" s="8">
+      <c r="C240" s="5">
         <v>1017</v>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       <c r="B241" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C241" s="8">
+      <c r="C241" s="5">
         <v>1017</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       <c r="B242" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="4">
         <v>305.10000000000002</v>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
       <c r="B243" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="4">
         <v>66.11</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B244" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C244" s="4">
         <v>162.47</v>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       <c r="B245" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="7">
+      <c r="C245" s="4">
         <v>103.75</v>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       <c r="B246" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C246" s="7">
+      <c r="C246" s="4">
         <v>762.75</v>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       <c r="B247" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C247" s="4">
         <v>15.26</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="B248" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C248" s="4">
         <v>19.78</v>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       <c r="B249" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C249" s="4">
         <v>30.51</v>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="B250" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="4">
         <v>45.77</v>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       <c r="B251" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C251" s="7">
+      <c r="C251" s="4">
         <v>15.26</v>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="B252" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C252" s="7">
+      <c r="C252" s="4">
         <v>37.5</v>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       <c r="B253" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="4">
         <v>125</v>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       <c r="B254" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="7">
+      <c r="C254" s="4">
         <v>130</v>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       <c r="B255" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="4">
         <v>316</v>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       <c r="B256" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C256" s="7">
+      <c r="C256" s="4">
         <v>762.75</v>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="B257" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C257" s="8">
+      <c r="C257" s="5">
         <v>1017</v>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       <c r="B258" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C258" s="7">
+      <c r="C258" s="4">
         <v>152.55000000000001</v>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       <c r="B259" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="4">
         <v>50.85</v>
       </c>
     </row>
@@ -4355,16 +4355,16 @@
       <c r="B260" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C260" s="8">
+      <c r="C260" s="5">
         <v>1321.85</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B261" s="5"/>
-      <c r="C261" s="6"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
@@ -4373,16 +4373,16 @@
       <c r="B262" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="6"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
@@ -4391,7 +4391,7 @@
       <c r="B264" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C264" s="7">
+      <c r="C264" s="4">
         <v>193.23</v>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       <c r="B265" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="4">
         <v>233.91</v>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       <c r="B266" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C266" s="7">
+      <c r="C266" s="4">
         <v>244.08</v>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
         <v>277</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="7">
+      <c r="C267" s="4">
         <v>203.4</v>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
         <v>278</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="7">
+      <c r="C268" s="4">
         <v>193.23</v>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       <c r="B269" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C269" s="7">
+      <c r="C269" s="4">
         <v>355.95</v>
       </c>
     </row>
@@ -4453,16 +4453,16 @@
       <c r="B270" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C270" s="7">
+      <c r="C270" s="4">
         <v>209.5</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B271" s="5"/>
-      <c r="C271" s="6"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="8"/>
     </row>
     <row r="272" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
@@ -4471,7 +4471,7 @@
       <c r="B272" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C272" s="7">
+      <c r="C272" s="4">
         <v>254.25</v>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       <c r="B273" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C273" s="7">
+      <c r="C273" s="4">
         <v>457.65</v>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       <c r="B274" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C274" s="4">
         <v>254.25</v>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
       <c r="B275" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="4">
         <v>457.65</v>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       <c r="B276" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C276" s="7">
+      <c r="C276" s="4">
         <v>254.25</v>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       <c r="B277" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="4">
         <v>457.65</v>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       <c r="B278" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C278" s="7">
+      <c r="C278" s="4">
         <v>457.65</v>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
       <c r="B279" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C279" s="7">
+      <c r="C279" s="4">
         <v>254.25</v>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       <c r="B280" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       <c r="B281" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C281" s="8">
+      <c r="C281" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       <c r="B282" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C282" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="B283" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C283" s="8">
+      <c r="C283" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       <c r="B284" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C284" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       <c r="B285" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="8">
+      <c r="C285" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       <c r="B286" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C286" s="8">
+      <c r="C286" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       <c r="B287" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C287" s="7">
+      <c r="C287" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="B288" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C288" s="8">
+      <c r="C288" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       <c r="B289" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C289" s="8">
+      <c r="C289" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       <c r="B290" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C290" s="7">
+      <c r="C290" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
       <c r="B291" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       <c r="B292" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C292" s="8">
+      <c r="C292" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       <c r="B293" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="B294" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C294" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="B295" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C295" s="8">
+      <c r="C295" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="B296" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="4">
         <v>469.86</v>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       <c r="B297" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C297" s="8">
+      <c r="C297" s="5">
         <v>1191.93</v>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       <c r="B298" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C298" s="7">
+      <c r="C298" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       <c r="B299" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C299" s="7">
+      <c r="C299" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       <c r="B300" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C300" s="8">
+      <c r="C300" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="B301" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C301" s="7">
+      <c r="C301" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       <c r="B302" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C302" s="8">
+      <c r="C302" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       <c r="B303" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C303" s="7">
+      <c r="C303" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       <c r="B304" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C304" s="8">
+      <c r="C304" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       <c r="B305" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C305" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       <c r="B306" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C306" s="8">
+      <c r="C306" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       <c r="B307" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C307" s="7">
+      <c r="C307" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="B308" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C308" s="8">
+      <c r="C308" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       <c r="B309" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C309" s="7">
+      <c r="C309" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       <c r="B310" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C310" s="8">
+      <c r="C310" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       <c r="B311" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C311" s="8">
+      <c r="C311" s="5">
         <v>1372.95</v>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       <c r="B312" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C312" s="7">
+      <c r="C312" s="4">
         <v>559.35</v>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       <c r="B313" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C313" s="7">
+      <c r="C313" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       <c r="B314" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C314" s="7">
+      <c r="C314" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
       <c r="B315" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C315" s="7">
+      <c r="C315" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       <c r="B316" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C316" s="7">
+      <c r="C316" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       <c r="B317" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C317" s="7">
+      <c r="C317" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       <c r="B318" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C318" s="7">
+      <c r="C318" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="B319" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C319" s="7">
+      <c r="C319" s="4">
         <v>854.28</v>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       <c r="B320" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C320" s="7">
+      <c r="C320" s="4">
         <v>497.92</v>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       <c r="B321" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C321" s="4">
         <v>497.92</v>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       <c r="B322" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C322" s="7">
+      <c r="C322" s="4">
         <v>96.62</v>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
       <c r="B323" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C323" s="7">
+      <c r="C323" s="4">
         <v>184.08</v>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       <c r="B324" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C324" s="7">
+      <c r="C324" s="4">
         <v>185.5</v>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       <c r="B325" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C325" s="7">
+      <c r="C325" s="4">
         <v>476.69</v>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       <c r="B326" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C326" s="7">
+      <c r="C326" s="4">
         <v>161.91</v>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
       <c r="B327" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C327" s="7">
+      <c r="C327" s="4">
         <v>125</v>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       <c r="B328" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C328" s="7">
+      <c r="C328" s="4">
         <v>355.95</v>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
       <c r="B329" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C329" s="7">
+      <c r="C329" s="4">
         <v>350</v>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       <c r="B330" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C330" s="7">
+      <c r="C330" s="4">
         <v>451.55</v>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       <c r="B331" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C331" s="7">
+      <c r="C331" s="4">
         <v>510</v>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       <c r="B332" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C332" s="7">
+      <c r="C332" s="4">
         <v>506.47</v>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       <c r="B333" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C333" s="7">
+      <c r="C333" s="4">
         <v>515.62</v>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       <c r="B334" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C334" s="8">
+      <c r="C334" s="5">
         <v>1474.65</v>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="B335" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C335" s="7">
+      <c r="C335" s="4">
         <v>58.99</v>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       <c r="B336" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C336" s="7">
+      <c r="C336" s="4">
         <v>86.23</v>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       <c r="B337" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C337" s="7">
+      <c r="C337" s="4">
         <v>50.85</v>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       <c r="B338" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C338" s="7">
+      <c r="C338" s="4">
         <v>67.13</v>
       </c>
     </row>
@@ -5208,7 +5208,7 @@
       <c r="B339" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C339" s="7">
+      <c r="C339" s="4">
         <v>25.43</v>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       <c r="B340" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C340" s="7">
+      <c r="C340" s="4">
         <v>378.32</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       <c r="B341" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C341" s="7">
+      <c r="C341" s="4">
         <v>144.88999999999999</v>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="B342" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C342" s="7">
+      <c r="C342" s="4">
         <v>84.29</v>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       <c r="B343" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C343" s="8">
+      <c r="C343" s="5">
         <v>1169.55</v>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
       <c r="B344" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C344" s="8">
+      <c r="C344" s="5">
         <v>1187.8499999999999</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       <c r="B345" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C345" s="8">
+      <c r="C345" s="5">
         <v>1271.25</v>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="B346" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C346" s="8">
+      <c r="C346" s="5">
         <v>1439.06</v>
       </c>
     </row>
@@ -5294,7 +5294,7 @@
         <v>357</v>
       </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="7">
+      <c r="C347" s="4">
         <v>75</v>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
         <v>358</v>
       </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="7">
+      <c r="C348" s="4">
         <v>116.95</v>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       <c r="B349" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C349" s="7">
+      <c r="C349" s="4">
         <v>71.19</v>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       <c r="B350" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C350" s="7">
+      <c r="C350" s="4">
         <v>75.400000000000006</v>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       <c r="B351" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C351" s="7">
+      <c r="C351" s="4">
         <v>134.19</v>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       <c r="B352" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C352" s="7">
+      <c r="C352" s="4">
         <v>280.64</v>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="B353" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C353" s="7">
+      <c r="C353" s="4">
         <v>508.5</v>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       <c r="B354" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C354" s="7">
+      <c r="C354" s="4">
         <v>383.21</v>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       <c r="B355" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C355" s="7">
+      <c r="C355" s="4">
         <v>661.05</v>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       <c r="B356" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C356" s="7">
+      <c r="C356" s="4">
         <v>207.47</v>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="B357" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C357" s="7">
+      <c r="C357" s="4">
         <v>414.94</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="B358" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C358" s="7">
+      <c r="C358" s="4">
         <v>207.47</v>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
       <c r="B359" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C359" s="7">
+      <c r="C359" s="4">
         <v>414.93</v>
       </c>
     </row>
@@ -5435,12 +5435,21 @@
       <c r="B360" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C360" s="7">
+      <c r="C360" s="4">
         <v>207.47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A232:C232"/>
     <mergeCell ref="A154:C154"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A28:C28"/>
@@ -5453,15 +5462,6 @@
     <mergeCell ref="A143:C143"/>
     <mergeCell ref="A149:C149"/>
     <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A232:C232"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Сайты+что добавил/Список сайтов часть вторая/Металлобаза на Вишневой/pT0y5CSErn.xlsx
+++ b/Сайты+что добавил/Список сайтов часть вторая/Металлобаза на Вишневой/pT0y5CSErn.xlsx
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C360"/>
     </sheetView>
   </sheetViews>
@@ -5441,15 +5441,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A232:C232"/>
     <mergeCell ref="A154:C154"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A28:C28"/>
@@ -5462,6 +5453,15 @@
     <mergeCell ref="A143:C143"/>
     <mergeCell ref="A149:C149"/>
     <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A232:C232"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
